--- a/pred_ohlcv/54_21/2019-11-01 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 BCD ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-16800.14274924</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-16800.14274924</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-21990.62364924</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-18322.08434924</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-23248.51264924</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-24751.44674924</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-23084.38714924</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-22746.25210651</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-17301.26060651</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-18209.26060651</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-18137.74630651</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-18131.73480651</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-16876.26830651</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-16876.26830651</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-01 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 BCD ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-21990.62364924</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-18322.08434924</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-23248.51264924</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-20803.87544924</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-24751.44674924</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-23575.44674924</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-23084.38714924</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-22746.25210651</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-17301.26060651</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-18209.26060651</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-18137.74630651</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-18131.73480651</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-16876.26830651</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-16876.26830651</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-16946.26830651</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-19401.73760651</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-19400.05701994</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>650055.9659328801</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>628213.93833288</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
